--- a/assignment2/Schedule.xlsx
+++ b/assignment2/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\Arduino\embedded software\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91150391-FA8B-47A3-9ADC-4734ADBE0BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852A3DC-21F4-4ABB-B37F-8A623E238037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7E35AE4-5795-4E8F-A876-8CE732397254}"/>
   </bookViews>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -138,7 +138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +455,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +711,7 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
@@ -1104,7 +1103,6 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="6"/>
       <c r="H31">
         <f>IF(C31=1,C4)+IF(D31=1,D4)+IF(E31=1,E4)+IF(F31=1,F4)+IF(G31=1,G4)</f>
         <v>2228</v>
@@ -1283,7 +1281,7 @@
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
@@ -1633,7 +1631,6 @@
       <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="6"/>
       <c r="H55">
         <f>IF(C55=1,C4)+IF(D55=1,D4)+IF(E55=1,E4)+IF(F55=1,F4)+IF(G55=1,G4)</f>
         <v>2228</v>
